--- a/server/goal_plan_data_export.xlsx
+++ b/server/goal_plan_data_export.xlsx
@@ -65,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -90,51 +90,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>2023.0</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>2022.0</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>2024.0</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>1234.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>2024.0</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>3456.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
